--- a/数据整理/stocks/A股/创业板/300596-利安隆.xlsx
+++ b/数据整理/stocks/A股/创业板/300596-利安隆.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -502,15 +512,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>8.08</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>21.08</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>0.64</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0517</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>10</v>
       </c>
     </row>
@@ -530,15 +550,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>21.08</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>0.64</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0070</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>10</v>
       </c>
     </row>
@@ -553,7 +583,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -574,15 +604,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -604,15 +644,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>33.38</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>1.94</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0411</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>4</v>
       </c>
     </row>
@@ -632,15 +682,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>33.38</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>1.94</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0213</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>4</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300596-利安隆.xlsx
+++ b/数据整理/stocks/A股/创业板/300596-利安隆.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -707,4 +708,136 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001543</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>宝盈新锐灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>6.64</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.69</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2862</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>007578</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>宝盈新锐灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.69</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0147</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300596-利安隆.xlsx
+++ b/数据整理/stocks/A股/创业板/300596-利安隆.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -840,4 +841,212 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>004734</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中欧瑾灵灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>9.30</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>27.62</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0986</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>004845</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>南华瑞盈混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>64.80</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0854</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>004735</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中欧瑾灵灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>27.62</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0281</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>004846</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>南华瑞盈混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>64.80</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300596-利安隆.xlsx
+++ b/数据整理/stocks/A股/创业板/300596-利安隆.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1049,4 +1050,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.06</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300596-利安隆.xlsx
+++ b/数据整理/stocks/A股/创业板/300596-利安隆.xlsx
@@ -1074,12 +1074,12 @@
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>持有数量(只)</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>持有市值(亿元)</t>
         </is>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300596-利安隆.xlsx
+++ b/数据整理/stocks/A股/创业板/300596-利安隆.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1058,7 +1059,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1069,17 +1070,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1089,14 +1110,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>4</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.22</v>
+          <t>012262</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华宝可持续发展混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>16.19</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>66.51</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3448</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -1105,14 +1148,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>2</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.3</v>
+          <t>009989</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华宝研究精选混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>8.65</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>85.40</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2803</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -1121,14 +1186,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>2</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.06</v>
+          <t>012263</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华宝可持续发展混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>6.42</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>66.51</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1367</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -1137,13 +1224,189 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>004845</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>南华瑞盈混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>82.72</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0745</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>004846</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>南华瑞盈混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>82.72</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.84</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>2</v>
       </c>
       <c r="D5" t="n">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>2</v>
+      </c>
+      <c r="D6" t="n">
         <v>0.06</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300596-利安隆.xlsx
+++ b/数据整理/stocks/A股/创业板/300596-利安隆.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1305,7 +1306,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1316,17 +1317,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1336,14 +1357,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>5</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.84</v>
+          <t>012262</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华宝可持续发展混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>15.65</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>79.17</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3318</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -1352,14 +1395,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>4</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.22</v>
+          <t>009989</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华宝研究精选混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>9.19</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>79.21</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2702</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -1368,14 +1433,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>2</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.3</v>
+          <t>012263</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华宝可持续发展混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>5.89</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>79.17</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1249</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -1384,14 +1471,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>2</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.06</v>
+          <t>002639</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>天弘价值精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>20.33</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0219</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -1400,13 +1509,205 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>002137</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>诺安利鑫灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>71.74</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0173</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>014521</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>诺安利鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>71.74</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>6</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.77</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>5</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.84</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>4</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>2</v>
       </c>
       <c r="D6" t="n">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>2</v>
+      </c>
+      <c r="D7" t="n">
         <v>0.06</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300596-利安隆.xlsx
+++ b/数据整理/stocks/A股/创业板/300596-利安隆.xlsx
@@ -6,13 +6,13 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,129 +456,129 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>004900</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>财通资管鑫锐回报混合A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>8.08</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>21.08</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>0.64</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.0517</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>10</v>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>6</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.77</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>004901</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>财通资管鑫锐回报混合C</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>1.10</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>21.08</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>0.64</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0070</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>10</v>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>5</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.84</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>4</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>2</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>2</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.06</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -588,7 +588,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -609,7 +609,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -639,36 +639,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>004900</t>
+          <t>012262</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>财通资管鑫锐回报混合A</t>
+          <t>华宝可持续发展混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>15.65</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>79.17</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
           <t>2.12</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>33.38</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>1.94</t>
-        </is>
-      </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0411</t>
+          <t>0.3318</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -677,36 +677,188 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>004901</t>
+          <t>009989</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>财通资管鑫锐回报混合C</t>
+          <t>华宝研究精选混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1.10</t>
+          <t>9.19</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>33.38</t>
+          <t>79.21</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1.94</t>
+          <t>2.94</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0213</t>
+          <t>0.2702</t>
         </is>
       </c>
       <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>012263</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华宝可持续发展混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>5.89</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>79.17</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1249</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>002639</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>天弘价值精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>20.33</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0219</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
         <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>002137</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>诺安利鑫灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>71.74</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0173</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>014521</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>诺安利鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>71.74</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -720,7 +872,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -741,7 +893,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -771,36 +923,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>001543</t>
+          <t>012262</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>宝盈新锐灵活配置混合A</t>
+          <t>华宝可持续发展混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>6.64</t>
+          <t>16.19</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.69</t>
+          <t>66.51</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.31</t>
+          <t>2.13</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.2862</t>
+          <t>0.3448</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -809,35 +961,149 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>007578</t>
+          <t>009989</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>宝盈新锐灵活配置混合C</t>
+          <t>华宝研究精选混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.34</t>
+          <t>8.65</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>94.69</t>
+          <t>85.40</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.31</t>
+          <t>3.24</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0147</t>
+          <t>0.2803</t>
         </is>
       </c>
       <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>012263</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华宝可持续发展混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>6.42</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>66.51</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1367</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>004845</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>南华瑞盈混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>82.72</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0745</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>004846</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>南华瑞盈混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>82.72</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
         <v>10</v>
       </c>
     </row>
@@ -1060,7 +1326,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1081,7 +1347,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1111,36 +1377,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>012262</t>
+          <t>001543</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>华宝可持续发展混合A</t>
+          <t>宝盈新锐灵活配置混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>16.19</t>
+          <t>6.64</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>66.51</t>
+          <t>94.69</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.13</t>
+          <t>4.31</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.3448</t>
+          <t>0.2862</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -1149,149 +1415,35 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>009989</t>
+          <t>007578</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>华宝研究精选混合</t>
+          <t>宝盈新锐灵活配置混合C</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>8.65</t>
+          <t>0.34</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>85.40</t>
+          <t>94.69</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.24</t>
+          <t>4.31</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.2803</t>
+          <t>0.0147</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>012263</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>华宝可持续发展混合C</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>6.42</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>66.51</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2.13</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.1367</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>004845</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>南华瑞盈混合A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>2.90</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>82.72</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2.57</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0745</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>004846</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>南华瑞盈混合C</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.10</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>82.72</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>2.57</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0026</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
         <v>10</v>
       </c>
     </row>
@@ -1306,7 +1458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1327,7 +1479,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1357,36 +1509,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>012262</t>
+          <t>004900</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>华宝可持续发展混合A</t>
+          <t>财通资管鑫锐回报混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>15.65</t>
+          <t>2.12</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>79.17</t>
+          <t>33.38</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.12</t>
+          <t>1.94</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.3318</t>
+          <t>0.0411</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -1395,188 +1547,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>009989</t>
+          <t>004901</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>华宝研究精选混合</t>
+          <t>财通资管鑫锐回报混合C</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>9.19</t>
+          <t>1.10</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>79.21</t>
+          <t>33.38</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.94</t>
+          <t>1.94</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.2702</t>
+          <t>0.0213</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>012263</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>华宝可持续发展混合C</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>5.89</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>79.17</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2.12</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.1249</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>002639</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>天弘价值精选灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>2.31</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>20.33</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>0.95</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0219</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
         <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>002137</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>诺安利鑫灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.53</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>71.74</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>3.27</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0173</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>014521</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>诺安利鑫灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0.04</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>71.74</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>3.27</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0013</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -1590,128 +1590,128 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>6</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.77</v>
+          <t>004900</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>财通资管鑫锐回报混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>8.08</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>21.08</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0517</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="n">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>5</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.84</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>4</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.22</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>2</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>2</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.06</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>2020-Q4</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>2</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.06</v>
+          <t>004901</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>财通资管鑫锐回报混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>21.08</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0070</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300596-利安隆.xlsx
+++ b/数据整理/stocks/A股/创业板/300596-利安隆.xlsx
@@ -7,12 +7,13 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,7 +457,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,14 +488,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="D2" t="n">
-        <v>0.77</v>
+        <v>6.17</v>
       </c>
     </row>
     <row r="3">
@@ -503,14 +504,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D3" t="n">
-        <v>0.84</v>
+        <v>0.77</v>
       </c>
     </row>
     <row r="4">
@@ -519,14 +520,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
-        <v>0.22</v>
+        <v>0.84</v>
       </c>
     </row>
     <row r="5">
@@ -535,14 +536,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
-        <v>0.3</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="6">
@@ -551,14 +552,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>2</v>
       </c>
       <c r="D6" t="n">
-        <v>0.06</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="7">
@@ -567,13 +568,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C7" t="n">
         <v>2</v>
       </c>
       <c r="D7" t="n">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>2</v>
+      </c>
+      <c r="D8" t="n">
         <v>0.06</v>
       </c>
     </row>
@@ -583,6 +600,1050 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>010190</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>嘉实价值发现三个月定期开放混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>37.17</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>87.75</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.7173</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>011518</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>嘉实价值臻选混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>27.32</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.20</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.78</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.5791</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>070019</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>嘉实价值优势混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>22.89</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.19</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.66</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.2956</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>009989</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华宝研究精选混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>8.14</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>82.83</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3354</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>012262</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华宝可持续发展混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>8.44</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>84.59</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3199</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>360001</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>光大保德信量化股票</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>13.28</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>89.50</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2576</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>013624</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>嘉实价值创造三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.05</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.54</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2054</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>012263</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华宝可持续发展混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>84.59</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1796</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>000866</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华宝高端制造股票</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>89.16</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0851</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>013625</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>嘉实价值创造三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.05</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>6.54</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0471</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>014627</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>财通多策略福瑞混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>61.59</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0207</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>004284</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华宝新优选一年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>75.29</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0192</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>011786</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>工银聚安混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>24.17</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0184</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>004608</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>长信乐信灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>48.69</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0162</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>501028</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>财通多策略福瑞混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>61.59</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0160</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>560006</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>益民核心增长混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>77.02</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0156</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>003861</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>招商兴福灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>23.33</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0147</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>007903</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>长城量化小盘股票</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>91.70</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0106</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>003862</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>招商兴福灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>23.33</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0095</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>015466</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>太平中证1000指数增强A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>92.23</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>016169</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>嘉实价值优势混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>91.19</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>5.66</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>005305</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>长信合利混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>35.34</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>004609</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>长信乐信灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>48.69</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>015467</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>太平中证1000指数增强C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>92.23</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>005306</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>长信合利混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>35.34</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>011787</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>工银聚安混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>24.17</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -866,7 +1927,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1112,7 +2173,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1313,138 +2374,6 @@
       </c>
       <c r="H5" t="n">
         <v>5</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>001543</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>宝盈新锐灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>6.64</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>94.69</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>4.31</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.2862</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>007578</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>宝盈新锐灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0.34</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>94.69</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>4.31</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0147</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1509,36 +2438,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>004900</t>
+          <t>001543</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>财通资管鑫锐回报混合A</t>
+          <t>宝盈新锐灵活配置混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2.12</t>
+          <t>6.64</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>33.38</t>
+          <t>94.69</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1.94</t>
+          <t>4.31</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0411</t>
+          <t>0.2862</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -1547,36 +2476,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>004901</t>
+          <t>007578</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>财通资管鑫锐回报混合C</t>
+          <t>宝盈新锐灵活配置混合C</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1.10</t>
+          <t>0.34</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>33.38</t>
+          <t>94.69</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1.94</t>
+          <t>4.31</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0213</t>
+          <t>0.0147</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1585,6 +2514,138 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>004900</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>财通资管鑫锐回报混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>33.38</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0411</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>004901</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>财通资管鑫锐回报混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>33.38</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0213</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/创业板/300596-利安隆.xlsx
+++ b/数据整理/stocks/A股/创业板/300596-利安隆.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D2" t="n">
-        <v>6.17</v>
+        <v>7.28</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="D3" t="n">
-        <v>0.77</v>
+        <v>6.17</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D4" t="n">
-        <v>0.84</v>
+        <v>0.77</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
-        <v>0.22</v>
+        <v>0.84</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
-        <v>0.3</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
         <v>2</v>
       </c>
       <c r="D7" t="n">
-        <v>0.06</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C8" t="n">
         <v>2</v>
       </c>
       <c r="D8" t="n">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>2</v>
+      </c>
+      <c r="D9" t="n">
         <v>0.06</v>
       </c>
     </row>
@@ -600,6 +617,1086 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>010190</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>嘉实价值发现三个月定期开放混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>38.99</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>95.31</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.0119</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>011518</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>嘉实价值臻选混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>27.37</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.94</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.75</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.5738</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>070019</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>嘉实价值优势混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>22.22</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.25</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.80</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.2888</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>160605</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>鹏华中国50混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>13.70</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>82.57</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.5028</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>009989</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华宝研究精选混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>7.42</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>87.41</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3339</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>012262</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华宝可持续发展混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>8.23</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>89.78</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3243</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>005313</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>万家中证1000指数增强A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>22.07</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.13</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2450</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>005314</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>万家中证1000指数增强C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>19.61</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.13</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2177</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>013624</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>嘉实价值创造三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.70</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.31</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2038</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>012263</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华宝可持续发展混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>89.78</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1726</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>000866</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华宝高端制造股票</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>86.44</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1065</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>004845</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>南华瑞盈混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0771</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>013625</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>嘉实价值创造三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.70</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>6.31</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0473</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>160645</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>鹏华精选回报三年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>74.91</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0367</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>163110</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>申万菱信量化小盘股票（LOF）A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>92.35</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0280</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>014839</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>兴银碳中和主题混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>92.17</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0232</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>004284</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>华宝新优选一年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>89.00</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0192</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>014838</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>兴银碳中和主题混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>92.17</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0192</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>002137</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>诺安利鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>89.87</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0167</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>002456</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>招商安元灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>38.01</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0102</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>002457</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>招商安元灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>38.01</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0078</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>015466</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>太平中证1000指数增强A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>93.58</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0056</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>016169</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>嘉实价值优势混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>94.25</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>5.80</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0052</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>004846</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>南华瑞盈混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>015467</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>太平中证1000指数增强C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>93.58</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>014521</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>诺安利鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>89.87</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>013918</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>申万菱信量化小盘股票（LOF）C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>92.35</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="G28" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1643,7 +2740,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1927,7 +3024,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2173,7 +3270,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2374,138 +3471,6 @@
       </c>
       <c r="H5" t="n">
         <v>5</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>001543</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>宝盈新锐灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>6.64</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>94.69</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>4.31</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.2862</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>007578</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>宝盈新锐灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0.34</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>94.69</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>4.31</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0147</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -2570,36 +3535,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>004900</t>
+          <t>001543</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>财通资管鑫锐回报混合A</t>
+          <t>宝盈新锐灵活配置混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2.12</t>
+          <t>6.64</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>33.38</t>
+          <t>94.69</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1.94</t>
+          <t>4.31</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0411</t>
+          <t>0.2862</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -2608,36 +3573,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>004901</t>
+          <t>007578</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>财通资管鑫锐回报混合C</t>
+          <t>宝盈新锐灵活配置混合C</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1.10</t>
+          <t>0.34</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>33.38</t>
+          <t>94.69</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1.94</t>
+          <t>4.31</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0213</t>
+          <t>0.0147</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -2646,6 +3611,138 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>004900</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>财通资管鑫锐回报混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>33.38</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0411</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>004901</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>财通资管鑫锐回报混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>33.38</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0213</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
